--- a/Kesä_2019_tuntilista.xlsx
+++ b/Kesä_2019_tuntilista.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kesä 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kesä_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4078D0-0429-44B0-AFDF-69C3ED85A0BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C913234E-0C71-4843-8A40-C49DD38291D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{168F901C-B0C6-46A2-ABFE-B1D9228D49BB}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{168F901C-B0C6-46A2-ABFE-B1D9228D49BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>KESÄPROJEKTI TUNTILISTA</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Toiminnallinen määrittely</t>
   </si>
   <si>
-    <t>Pelidemo</t>
-  </si>
-  <si>
     <t>Ensimmäisen tason terrain</t>
   </si>
   <si>
@@ -70,6 +67,72 @@
   </si>
   <si>
     <t>Pelin fysiikan kirjoittaminen &amp; PlayerCollision.cs</t>
+  </si>
+  <si>
+    <t>PlayerCollision.cs</t>
+  </si>
+  <si>
+    <t>Pelaajan kulkualustan fysiikka</t>
+  </si>
+  <si>
+    <t>Peli</t>
+  </si>
+  <si>
+    <t>score.cs ja level_complete.cs</t>
+  </si>
+  <si>
+    <t>levelcomplete-animaatio</t>
+  </si>
+  <si>
+    <t>EndTrigger.cs</t>
+  </si>
+  <si>
+    <t>Taso kaksi terrain</t>
+  </si>
+  <si>
+    <t>Peli #2 (Varasuunnitelma)</t>
+  </si>
+  <si>
+    <t>Varasuunnitelman laatiminen</t>
+  </si>
+  <si>
+    <t>Grafiikan teko</t>
+  </si>
+  <si>
+    <t>Perusmekaniikan teko</t>
+  </si>
+  <si>
+    <t>Tutoriaalitason terrain</t>
+  </si>
+  <si>
+    <t>Tekstit ja niiden ohjeistusgrafiikka</t>
+  </si>
+  <si>
+    <t>Pelaajahahmo (animointi yms)</t>
+  </si>
+  <si>
+    <t>Vihollishahmo (animointi yms)</t>
+  </si>
+  <si>
+    <t>LoadingScreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taso 1 Terrain </t>
+  </si>
+  <si>
+    <t>Musiikin suunnittelu</t>
+  </si>
+  <si>
+    <t>MUSIIKKI VIELÄ KESKEN!!!</t>
+  </si>
+  <si>
+    <t>Musiikille suunniteltu aika: 17</t>
+  </si>
+  <si>
+    <t>ÄÄNIEFEKTIT KESKEN!!!</t>
+  </si>
+  <si>
+    <t>Ääniefekteille suunniteltu aika 6</t>
   </si>
 </sst>
 </file>
@@ -432,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEA2AE4-61B6-4BC1-B846-E8B33F4598C3}">
   <dimension ref="A1:AI200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +898,7 @@
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -913,12 +976,12 @@
         <v>43623</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -956,7 +1019,7 @@
         <v>43623</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -999,7 +1062,7 @@
         <v>43624</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1042,7 +1105,7 @@
         <v>43624</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1081,11 +1144,17 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="2">
+        <v>43625</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1118,11 +1187,17 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="2">
+        <v>43625</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1155,11 +1230,17 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="2">
+        <v>43628</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1192,11 +1273,17 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="2">
+        <v>43628</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1229,11 +1316,17 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="2">
+        <v>43630</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1266,11 +1359,17 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="2">
+        <v>43634</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1341,7 +1440,9 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1414,11 +1515,17 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="2">
+        <v>43648</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1451,11 +1558,17 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="2">
+        <v>43650</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>10</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1488,11 +1601,17 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="2">
+        <v>43653</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>6</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1525,11 +1644,17 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="2">
+        <v>43655</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>6</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1562,11 +1687,17 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="2">
+        <v>43655</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1599,11 +1730,17 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="2">
+        <v>43658</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1">
+        <v>8</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1636,11 +1773,17 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="2">
+        <v>43659</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>7</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1673,11 +1816,17 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="2">
+        <v>43662</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1710,11 +1859,17 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="2">
+        <v>43662</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1">
+        <v>6</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1747,11 +1902,17 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1788,7 +1949,10 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1">
+        <f>E26+E27+E28+E29+E30+E31+E32+E33+F34+E34+E35</f>
+        <v>52</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1821,10 +1985,14 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1895,10 +2063,14 @@
       <c r="AI38" s="1"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
